--- a/dev/texts/translation_es/countries.xlsx
+++ b/dev/texts/translation_es/countries.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="70CQs0f5m/j1HEnr44zZRyjxbqB7EM6RQmNDvxDByUg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="VHeomRYFsrPn6n1eFJ4mLg0qWhl6eb8jGZ9zLqommeo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="371">
   <si>
     <t>country</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Dominica</t>
+  </si>
+  <si>
+    <t>república dominicana</t>
   </si>
   <si>
     <t>Dominican Republic</t>
@@ -1395,7 +1398,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="27.43"/>
+    <col customWidth="1" min="2" max="2" width="27.0"/>
+    <col customWidth="1" min="3" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1835,1383 +1840,1383 @@
         <v>82</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1"/>
